--- a/CTDL/YeuCau_7_8.xlsx
+++ b/CTDL/YeuCau_7_8.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,37 +508,69 @@
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>63536</v>
+      </c>
+      <c r="F9" s="2">
+        <v>133616</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="2">
+        <v>4503026</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>39214</v>
+      </c>
+      <c r="F10" s="2">
+        <v>133616</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>16216</v>
+      </c>
+      <c r="F11" s="2">
+        <v>133616</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="2">
+        <v>4964090</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>21233</v>
+      </c>
+      <c r="F12" s="2">
+        <v>133616</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CTDL/YeuCau_7_8.xlsx
+++ b/CTDL/YeuCau_7_8.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="YeuCau" sheetId="1" r:id="rId1"/>
+    <sheet name="YeuCau7" sheetId="1" r:id="rId1"/>
+    <sheet name="YeuCau8" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Sắp xếp chọn</t>
   </si>
@@ -36,9 +37,6 @@
   </si>
   <si>
     <t>Sắp xếp trộn</t>
-  </si>
-  <si>
-    <t>Yêu cầu 7</t>
   </si>
   <si>
     <t>Yêu cầu 8</t>
@@ -60,6 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,12 +118,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -404,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,9 +422,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,88 +487,186 @@
         <v>9475712</v>
       </c>
     </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <f>B4/B3</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <f>C4/C3</f>
+        <v>2.7290033592149272</v>
+      </c>
+      <c r="D9" s="3">
+        <f>D4/D3</f>
+        <v>10.000900090009001</v>
+      </c>
+      <c r="E9" s="3">
+        <f>E4/E3</f>
+        <v>15.626224675587411</v>
+      </c>
+      <c r="F9" s="3">
+        <f>F4/F3</f>
+        <v>12.49048018201413</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <f>B5/B3</f>
+        <v>50</v>
+      </c>
+      <c r="C10" s="3">
+        <f>C5/C3</f>
+        <v>13.772363876244755</v>
+      </c>
+      <c r="D10" s="3">
+        <f>D5/D3</f>
+        <v>50.004900490049003</v>
+      </c>
+      <c r="E10" s="3">
+        <f>E5/E3</f>
+        <v>93.362590676570036</v>
+      </c>
+      <c r="F10" s="3">
+        <f>F5/F3</f>
+        <v>70.917494910789131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="D3" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>63536</v>
+      </c>
+      <c r="F3" s="2">
+        <v>133616</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C4" s="2">
+        <v>4503026</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>39214</v>
+      </c>
+      <c r="F4" s="2">
+        <v>133616</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D5" s="2">
         <v>9999</v>
       </c>
-      <c r="E9" s="2">
-        <v>63536</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E5" s="2">
+        <v>16216</v>
+      </c>
+      <c r="F5" s="2">
         <v>133616</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4503026</v>
-      </c>
-      <c r="D10" s="2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4964090</v>
+      </c>
+      <c r="D6" s="2">
         <v>9999</v>
       </c>
-      <c r="E10" s="2">
-        <v>39214</v>
-      </c>
-      <c r="F10" s="2">
-        <v>133616</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E11" s="2">
-        <v>16216</v>
-      </c>
-      <c r="F11" s="2">
-        <v>133616</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4964090</v>
-      </c>
-      <c r="D12" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="E6" s="2">
         <v>21233</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F6" s="2">
         <v>133616</v>
       </c>
     </row>
